--- a/ResultatsBancTest/HBCompression.xlsx
+++ b/ResultatsBancTest/HBCompression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis-maxencehotton/Desktop/ProjetCapteurGraphite2022-LM-TL/ResultatsBancTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F9E49B-9BDB-2541-949D-40F21D2E112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8639C038-D3FB-C349-A1E8-32B1AD83A0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A110BED7-85FE-4F4A-B771-6FDD02800E81}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{A110BED7-85FE-4F4A-B771-6FDD02800E81}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -221,14 +221,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.4269685039370074E-2"/>
-                  <c:y val="-0.28503791192767569"/>
+                  <c:x val="-5.6360024269133301E-2"/>
+                  <c:y val="-0.32427366694126392"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -529,250 +528,250 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5198873636044458E-3</c:v>
+                  <c:v>0.35198873636044459</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8178936245156772E-3</c:v>
+                  <c:v>0.28178936245156772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0596540769494521E-4</c:v>
+                  <c:v>7.0596540769494523E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4109347442680788E-3</c:v>
+                  <c:v>0.14109347442680789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.0696359137512336E-4</c:v>
+                  <c:v>-7.0696359137512335E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.544842254519598E-3</c:v>
+                  <c:v>-0.35448422545195979</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.8338646829613912E-3</c:v>
+                  <c:v>-0.28338646829613912</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.6838365896978923E-3</c:v>
+                  <c:v>-0.56838365896978926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.6838365896980511E-3</c:v>
+                  <c:v>-0.56838365896980514</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.3988624244579592E-3</c:v>
+                  <c:v>-0.63988624244579595</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.8319686721252391E-3</c:v>
+                  <c:v>-0.78319686721252391</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.4695340501792088E-2</c:v>
+                  <c:v>-1.4695340501792087</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.4695340501792088E-2</c:v>
+                  <c:v>-1.4695340501792087</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.7247574559827377E-2</c:v>
+                  <c:v>-1.7247574559827379</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.8345323741007089E-2</c:v>
+                  <c:v>-1.8345323741007089</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.1652832912306047E-2</c:v>
+                  <c:v>-2.1652832912306046</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.0915975477821792E-2</c:v>
+                  <c:v>-2.0915975477821793</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.8345323741007089E-2</c:v>
+                  <c:v>-1.8345323741007089</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.9812680115273672E-2</c:v>
+                  <c:v>-1.9812680115273671</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.4610930148389453E-2</c:v>
+                  <c:v>-2.4610930148389456</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.4240231548480363E-2</c:v>
+                  <c:v>-2.4240231548480362</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.8706395348837278E-2</c:v>
+                  <c:v>-2.8706395348837277</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.7959331880900492E-2</c:v>
+                  <c:v>-2.7959331880900491</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.8706395348837111E-2</c:v>
+                  <c:v>-2.8706395348837113</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.0203784570596699E-2</c:v>
+                  <c:v>-3.0203784570596701</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.7213352685050866E-2</c:v>
+                  <c:v>-2.7213352685050864</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.358890105878061E-2</c:v>
+                  <c:v>-3.3588901058780607</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3.547915142648117E-2</c:v>
+                  <c:v>-3.547915142648117</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.6237188872620868E-2</c:v>
+                  <c:v>-3.6237188872620867</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3.5858031467252222E-2</c:v>
+                  <c:v>-3.585803146725222</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4.0808823529411849E-2</c:v>
+                  <c:v>-4.0808823529411846</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-4.2341678939617169E-2</c:v>
+                  <c:v>-4.2341678939617164</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-4.5420974889217224E-2</c:v>
+                  <c:v>-4.5420974889217218</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-5.0463821892393367E-2</c:v>
+                  <c:v>-5.0463821892393366</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-4.9684835001853875E-2</c:v>
+                  <c:v>-4.9684835001853873</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-4.9295774647887328E-2</c:v>
+                  <c:v>-4.9295774647887329</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-5.4769001490312885E-2</c:v>
+                  <c:v>-5.4769001490312883</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-5.5949272659455394E-2</c:v>
+                  <c:v>-5.5949272659455396</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-6.1890472618154377E-2</c:v>
+                  <c:v>-6.1890472618154373</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-5.990265818045664E-2</c:v>
+                  <c:v>-5.990265818045664</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-5.8317757009345848E-2</c:v>
+                  <c:v>-5.8317757009345854</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-6.2687687687687621E-2</c:v>
+                  <c:v>-6.2687687687687612</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-6.5086531226486097E-2</c:v>
+                  <c:v>-6.5086531226486102</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-6.5086531226485916E-2</c:v>
+                  <c:v>-6.5086531226485924</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-6.4685972169988781E-2</c:v>
+                  <c:v>-6.4685972169988784</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-6.7093856012061789E-2</c:v>
+                  <c:v>-6.7093856012061792</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-6.9916855631141361E-2</c:v>
+                  <c:v>-6.9916855631141379</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-6.9108761329305241E-2</c:v>
+                  <c:v>-6.9108761329305244</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-6.9512655836796264E-2</c:v>
+                  <c:v>-6.9512655836796258</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-6.9108761329305074E-2</c:v>
+                  <c:v>-6.9108761329305066</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-7.4791192103265028E-2</c:v>
+                  <c:v>-7.4791192103265027</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-7.8887195121951345E-2</c:v>
+                  <c:v>-7.8887195121951352</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-8.4258904634239656E-2</c:v>
+                  <c:v>-8.4258904634239649</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-8.4258904634239656E-2</c:v>
+                  <c:v>-8.4258904634239649</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-8.5922516302263038E-2</c:v>
+                  <c:v>-8.5922516302263041</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-8.7591240875912316E-2</c:v>
+                  <c:v>-8.7591240875912302</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-8.8427527873894643E-2</c:v>
+                  <c:v>-8.8427527873894665</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-8.7591240875912316E-2</c:v>
+                  <c:v>-8.7591240875912302</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-8.8427527873894643E-2</c:v>
+                  <c:v>-8.8427527873894665</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-8.8427527873894643E-2</c:v>
+                  <c:v>-8.8427527873894665</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-9.136468774094067E-2</c:v>
+                  <c:v>-9.1364687740940678</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-9.6436870642912523E-2</c:v>
+                  <c:v>-9.6436870642912531</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-9.8564221963523296E-2</c:v>
+                  <c:v>-9.8564221963523284</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-9.7712291585885916E-2</c:v>
+                  <c:v>-9.7712291585885911</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-9.3050193050193089E-2</c:v>
+                  <c:v>-9.3050193050193091</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-9.0523882896764385E-2</c:v>
+                  <c:v>-9.052388289676438</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-9.0944123314065595E-2</c:v>
+                  <c:v>-9.094412331406561</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-9.2206790123456922E-2</c:v>
+                  <c:v>-9.220679012345693</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-9.6436870642912523E-2</c:v>
+                  <c:v>-9.6436870642912531</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-9.9844599844599896E-2</c:v>
+                  <c:v>-9.9844599844599884</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.10542756735650119</c:v>
+                  <c:v>-10.542756735650119</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.10370370370370352</c:v>
+                  <c:v>-10.370370370370352</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.10715682440359797</c:v>
+                  <c:v>-10.715682440359798</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.11063162024323266</c:v>
+                  <c:v>-11.063162024323265</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.10672400312744318</c:v>
+                  <c:v>-10.672400312744319</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.10370370370370352</c:v>
+                  <c:v>-10.370370370370352</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.10198520825223824</c:v>
+                  <c:v>-10.198520825223824</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.10370370370370352</c:v>
+                  <c:v>-10.370370370370352</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.10456496293406156</c:v>
+                  <c:v>-10.456496293406156</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.10715682440359797</c:v>
+                  <c:v>-10.715682440359798</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.10672400312744337</c:v>
+                  <c:v>-10.672400312744337</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.10672400312744337</c:v>
+                  <c:v>-10.672400312744337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,12 +952,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Résistance relative</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="fr-FR" baseline="0"/>
-                  <a:t> R0-R/R0</a:t>
+                  <a:t>R0-R/R0 en %</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -1983,7 +1978,7 @@
   <dimension ref="A1:V1752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:B84"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2032,7 +2027,7 @@
         <v>5.6619999999999999</v>
       </c>
       <c r="H2">
-        <f>(G2-5.662)/G2</f>
+        <f>100*(G2-5.662)/G2</f>
         <v>0</v>
       </c>
       <c r="U2">
@@ -2064,8 +2059,8 @@
         <v>5.6820000000000004</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="1">(G3-5.662)/G3</f>
-        <v>3.5198873636044458E-3</v>
+        <f t="shared" ref="H3:H66" si="1">100*(G3-5.662)/G3</f>
+        <v>0.35198873636044459</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="2">V3*130/83</f>
@@ -2097,7 +2092,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>2.8178936245156772E-3</v>
+        <v>0.28178936245156772</v>
       </c>
       <c r="U4">
         <f t="shared" si="2"/>
@@ -2129,7 +2124,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>7.0596540769494521E-4</v>
+        <v>7.0596540769494523E-2</v>
       </c>
       <c r="U5">
         <f t="shared" si="2"/>
@@ -2161,7 +2156,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>1.4109347442680788E-3</v>
+        <v>0.14109347442680789</v>
       </c>
       <c r="U6">
         <f t="shared" si="2"/>
@@ -2193,7 +2188,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>-7.0696359137512336E-4</v>
+        <v>-7.0696359137512335E-2</v>
       </c>
       <c r="U7">
         <f t="shared" si="2"/>
@@ -2225,7 +2220,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>-3.544842254519598E-3</v>
+        <v>-0.35448422545195979</v>
       </c>
       <c r="U8">
         <f t="shared" si="2"/>
@@ -2257,7 +2252,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>-2.8338646829613912E-3</v>
+        <v>-0.28338646829613912</v>
       </c>
       <c r="U9">
         <f t="shared" si="2"/>
@@ -2289,7 +2284,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>-5.6838365896978923E-3</v>
+        <v>-0.56838365896978926</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
@@ -2321,7 +2316,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>-5.6838365896980511E-3</v>
+        <v>-0.56838365896980514</v>
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
@@ -2353,7 +2348,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>-6.3988624244579592E-3</v>
+        <v>-0.63988624244579595</v>
       </c>
       <c r="U12">
         <f t="shared" si="2"/>
@@ -2385,7 +2380,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>-7.8319686721252391E-3</v>
+        <v>-0.78319686721252391</v>
       </c>
       <c r="U13">
         <f t="shared" si="2"/>
@@ -2417,7 +2412,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>-1.4695340501792088E-2</v>
+        <v>-1.4695340501792087</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
@@ -2449,7 +2444,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>-1.4695340501792088E-2</v>
+        <v>-1.4695340501792087</v>
       </c>
       <c r="U15">
         <f t="shared" si="2"/>
@@ -2481,7 +2476,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>-1.7247574559827377E-2</v>
+        <v>-1.7247574559827379</v>
       </c>
       <c r="U16">
         <f t="shared" si="2"/>
@@ -2513,7 +2508,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>-1.8345323741007089E-2</v>
+        <v>-1.8345323741007089</v>
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
@@ -2545,7 +2540,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>-2.1652832912306047E-2</v>
+        <v>-2.1652832912306046</v>
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
@@ -2577,7 +2572,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>-2.0915975477821792E-2</v>
+        <v>-2.0915975477821793</v>
       </c>
       <c r="U19">
         <f t="shared" si="2"/>
@@ -2609,7 +2604,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>-1.8345323741007089E-2</v>
+        <v>-1.8345323741007089</v>
       </c>
       <c r="U20">
         <f t="shared" si="2"/>
@@ -2641,7 +2636,7 @@
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>-1.9812680115273672E-2</v>
+        <v>-1.9812680115273671</v>
       </c>
       <c r="U21">
         <f t="shared" si="2"/>
@@ -2673,7 +2668,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>-2.4610930148389453E-2</v>
+        <v>-2.4610930148389456</v>
       </c>
       <c r="U22">
         <f t="shared" si="2"/>
@@ -2705,7 +2700,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>-2.4240231548480363E-2</v>
+        <v>-2.4240231548480362</v>
       </c>
       <c r="U23">
         <f t="shared" si="2"/>
@@ -2737,7 +2732,7 @@
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>-2.8706395348837278E-2</v>
+        <v>-2.8706395348837277</v>
       </c>
       <c r="U24">
         <f t="shared" si="2"/>
@@ -2769,7 +2764,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>-2.7959331880900492E-2</v>
+        <v>-2.7959331880900491</v>
       </c>
       <c r="U25">
         <f t="shared" si="2"/>
@@ -2801,7 +2796,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>-2.8706395348837111E-2</v>
+        <v>-2.8706395348837113</v>
       </c>
       <c r="U26">
         <f t="shared" si="2"/>
@@ -2833,7 +2828,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>-3.0203784570596699E-2</v>
+        <v>-3.0203784570596701</v>
       </c>
       <c r="U27">
         <f t="shared" si="2"/>
@@ -2865,7 +2860,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>-2.7213352685050866E-2</v>
+        <v>-2.7213352685050864</v>
       </c>
       <c r="U28">
         <f t="shared" si="2"/>
@@ -2897,7 +2892,7 @@
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>-3.358890105878061E-2</v>
+        <v>-3.3588901058780607</v>
       </c>
       <c r="U29">
         <f t="shared" si="2"/>
@@ -2929,7 +2924,7 @@
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>-3.547915142648117E-2</v>
+        <v>-3.547915142648117</v>
       </c>
       <c r="U30">
         <f t="shared" si="2"/>
@@ -2961,7 +2956,7 @@
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>-3.6237188872620868E-2</v>
+        <v>-3.6237188872620867</v>
       </c>
       <c r="U31">
         <f t="shared" si="2"/>
@@ -2993,7 +2988,7 @@
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>-3.5858031467252222E-2</v>
+        <v>-3.585803146725222</v>
       </c>
       <c r="U32">
         <f t="shared" si="2"/>
@@ -3025,7 +3020,7 @@
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>-4.0808823529411849E-2</v>
+        <v>-4.0808823529411846</v>
       </c>
       <c r="U33">
         <f t="shared" si="2"/>
@@ -3057,7 +3052,7 @@
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>-4.2341678939617169E-2</v>
+        <v>-4.2341678939617164</v>
       </c>
       <c r="U34">
         <f t="shared" si="2"/>
@@ -3089,7 +3084,7 @@
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>-4.5420974889217224E-2</v>
+        <v>-4.5420974889217218</v>
       </c>
       <c r="U35">
         <f t="shared" si="2"/>
@@ -3121,7 +3116,7 @@
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>-5.0463821892393367E-2</v>
+        <v>-5.0463821892393366</v>
       </c>
       <c r="U36">
         <f t="shared" si="2"/>
@@ -3153,7 +3148,7 @@
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>-4.9684835001853875E-2</v>
+        <v>-4.9684835001853873</v>
       </c>
       <c r="U37">
         <f t="shared" si="2"/>
@@ -3185,7 +3180,7 @@
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>-4.9295774647887328E-2</v>
+        <v>-4.9295774647887329</v>
       </c>
       <c r="U38">
         <f t="shared" si="2"/>
@@ -3217,7 +3212,7 @@
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>-5.4769001490312885E-2</v>
+        <v>-5.4769001490312883</v>
       </c>
       <c r="U39">
         <f t="shared" si="2"/>
@@ -3249,7 +3244,7 @@
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>-5.5949272659455394E-2</v>
+        <v>-5.5949272659455396</v>
       </c>
       <c r="U40">
         <f t="shared" si="2"/>
@@ -3281,7 +3276,7 @@
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>-6.1890472618154377E-2</v>
+        <v>-6.1890472618154373</v>
       </c>
       <c r="U41">
         <f t="shared" si="2"/>
@@ -3313,7 +3308,7 @@
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>-5.990265818045664E-2</v>
+        <v>-5.990265818045664</v>
       </c>
       <c r="U42">
         <f t="shared" si="2"/>
@@ -3345,7 +3340,7 @@
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>-5.8317757009345848E-2</v>
+        <v>-5.8317757009345854</v>
       </c>
       <c r="U43">
         <f t="shared" si="2"/>
@@ -3377,7 +3372,7 @@
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>-6.2687687687687621E-2</v>
+        <v>-6.2687687687687612</v>
       </c>
       <c r="U44">
         <f t="shared" si="2"/>
@@ -3409,7 +3404,7 @@
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>-6.5086531226486097E-2</v>
+        <v>-6.5086531226486102</v>
       </c>
       <c r="U45">
         <f t="shared" si="2"/>
@@ -3441,7 +3436,7 @@
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>-6.5086531226485916E-2</v>
+        <v>-6.5086531226485924</v>
       </c>
       <c r="U46">
         <f t="shared" si="2"/>
@@ -3473,7 +3468,7 @@
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>-6.4685972169988781E-2</v>
+        <v>-6.4685972169988784</v>
       </c>
       <c r="U47">
         <f t="shared" si="2"/>
@@ -3505,7 +3500,7 @@
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
-        <v>-6.7093856012061789E-2</v>
+        <v>-6.7093856012061792</v>
       </c>
       <c r="U48">
         <f t="shared" si="2"/>
@@ -3537,7 +3532,7 @@
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
-        <v>-6.9916855631141361E-2</v>
+        <v>-6.9916855631141379</v>
       </c>
       <c r="U49">
         <f t="shared" si="2"/>
@@ -3569,7 +3564,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>-6.9108761329305241E-2</v>
+        <v>-6.9108761329305244</v>
       </c>
       <c r="U50">
         <f t="shared" si="2"/>
@@ -3601,7 +3596,7 @@
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>-6.9512655836796264E-2</v>
+        <v>-6.9512655836796258</v>
       </c>
       <c r="U51">
         <f t="shared" si="2"/>
@@ -3633,7 +3628,7 @@
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>-6.9108761329305074E-2</v>
+        <v>-6.9108761329305066</v>
       </c>
       <c r="U52">
         <f t="shared" si="2"/>
@@ -3665,7 +3660,7 @@
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>-7.4791192103265028E-2</v>
+        <v>-7.4791192103265027</v>
       </c>
       <c r="U53">
         <f t="shared" si="2"/>
@@ -3697,7 +3692,7 @@
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
-        <v>-7.8887195121951345E-2</v>
+        <v>-7.8887195121951352</v>
       </c>
       <c r="U54">
         <f t="shared" si="2"/>
@@ -3729,7 +3724,7 @@
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
-        <v>-8.4258904634239656E-2</v>
+        <v>-8.4258904634239649</v>
       </c>
       <c r="U55">
         <f t="shared" si="2"/>
@@ -3761,7 +3756,7 @@
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
-        <v>-8.4258904634239656E-2</v>
+        <v>-8.4258904634239649</v>
       </c>
       <c r="U56">
         <f t="shared" si="2"/>
@@ -3793,7 +3788,7 @@
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>-8.5922516302263038E-2</v>
+        <v>-8.5922516302263041</v>
       </c>
       <c r="U57">
         <f t="shared" si="2"/>
@@ -3825,7 +3820,7 @@
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
-        <v>-8.7591240875912316E-2</v>
+        <v>-8.7591240875912302</v>
       </c>
       <c r="U58">
         <f t="shared" si="2"/>
@@ -3857,7 +3852,7 @@
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
-        <v>-8.8427527873894643E-2</v>
+        <v>-8.8427527873894665</v>
       </c>
       <c r="U59">
         <f t="shared" si="2"/>
@@ -3889,7 +3884,7 @@
       </c>
       <c r="H60">
         <f t="shared" si="1"/>
-        <v>-8.7591240875912316E-2</v>
+        <v>-8.7591240875912302</v>
       </c>
       <c r="U60">
         <f t="shared" si="2"/>
@@ -3921,7 +3916,7 @@
       </c>
       <c r="H61">
         <f t="shared" si="1"/>
-        <v>-8.8427527873894643E-2</v>
+        <v>-8.8427527873894665</v>
       </c>
       <c r="U61">
         <f t="shared" si="2"/>
@@ -3953,7 +3948,7 @@
       </c>
       <c r="H62">
         <f t="shared" si="1"/>
-        <v>-8.8427527873894643E-2</v>
+        <v>-8.8427527873894665</v>
       </c>
       <c r="U62">
         <f t="shared" si="2"/>
@@ -3985,7 +3980,7 @@
       </c>
       <c r="H63">
         <f t="shared" si="1"/>
-        <v>-9.136468774094067E-2</v>
+        <v>-9.1364687740940678</v>
       </c>
       <c r="U63">
         <f t="shared" si="2"/>
@@ -4017,7 +4012,7 @@
       </c>
       <c r="H64">
         <f t="shared" si="1"/>
-        <v>-9.6436870642912523E-2</v>
+        <v>-9.6436870642912531</v>
       </c>
       <c r="U64">
         <f t="shared" si="2"/>
@@ -4049,7 +4044,7 @@
       </c>
       <c r="H65">
         <f t="shared" si="1"/>
-        <v>-9.8564221963523296E-2</v>
+        <v>-9.8564221963523284</v>
       </c>
       <c r="U65">
         <f t="shared" si="2"/>
@@ -4081,7 +4076,7 @@
       </c>
       <c r="H66">
         <f t="shared" si="1"/>
-        <v>-9.7712291585885916E-2</v>
+        <v>-9.7712291585885911</v>
       </c>
       <c r="U66">
         <f t="shared" si="2"/>
@@ -4112,8 +4107,8 @@
         <v>5.18</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H84" si="4">(G67-5.662)/G67</f>
-        <v>-9.3050193050193089E-2</v>
+        <f t="shared" ref="H67:H84" si="4">100*(G67-5.662)/G67</f>
+        <v>-9.3050193050193091</v>
       </c>
       <c r="U67">
         <f t="shared" ref="U67:U84" si="5">V67*130/83</f>
@@ -4145,7 +4140,7 @@
       </c>
       <c r="H68">
         <f t="shared" si="4"/>
-        <v>-9.0523882896764385E-2</v>
+        <v>-9.052388289676438</v>
       </c>
       <c r="U68">
         <f t="shared" si="5"/>
@@ -4177,7 +4172,7 @@
       </c>
       <c r="H69">
         <f t="shared" si="4"/>
-        <v>-9.0944123314065595E-2</v>
+        <v>-9.094412331406561</v>
       </c>
       <c r="U69">
         <f t="shared" si="5"/>
@@ -4209,7 +4204,7 @@
       </c>
       <c r="H70">
         <f t="shared" si="4"/>
-        <v>-9.2206790123456922E-2</v>
+        <v>-9.220679012345693</v>
       </c>
       <c r="U70">
         <f t="shared" si="5"/>
@@ -4241,7 +4236,7 @@
       </c>
       <c r="H71">
         <f t="shared" si="4"/>
-        <v>-9.6436870642912523E-2</v>
+        <v>-9.6436870642912531</v>
       </c>
       <c r="U71">
         <f t="shared" si="5"/>
@@ -4273,7 +4268,7 @@
       </c>
       <c r="H72">
         <f t="shared" si="4"/>
-        <v>-9.9844599844599896E-2</v>
+        <v>-9.9844599844599884</v>
       </c>
       <c r="U72">
         <f t="shared" si="5"/>
@@ -4305,7 +4300,7 @@
       </c>
       <c r="H73">
         <f t="shared" si="4"/>
-        <v>-0.10542756735650119</v>
+        <v>-10.542756735650119</v>
       </c>
       <c r="U73">
         <f t="shared" si="5"/>
@@ -4337,7 +4332,7 @@
       </c>
       <c r="H74">
         <f t="shared" si="4"/>
-        <v>-0.10370370370370352</v>
+        <v>-10.370370370370352</v>
       </c>
       <c r="U74">
         <f t="shared" si="5"/>
@@ -4369,7 +4364,7 @@
       </c>
       <c r="H75">
         <f t="shared" si="4"/>
-        <v>-0.10715682440359797</v>
+        <v>-10.715682440359798</v>
       </c>
       <c r="U75">
         <f t="shared" si="5"/>
@@ -4401,7 +4396,7 @@
       </c>
       <c r="H76">
         <f t="shared" si="4"/>
-        <v>-0.11063162024323266</v>
+        <v>-11.063162024323265</v>
       </c>
       <c r="U76">
         <f t="shared" si="5"/>
@@ -4433,7 +4428,7 @@
       </c>
       <c r="H77">
         <f t="shared" si="4"/>
-        <v>-0.10672400312744318</v>
+        <v>-10.672400312744319</v>
       </c>
       <c r="U77">
         <f t="shared" si="5"/>
@@ -4465,7 +4460,7 @@
       </c>
       <c r="H78">
         <f t="shared" si="4"/>
-        <v>-0.10370370370370352</v>
+        <v>-10.370370370370352</v>
       </c>
       <c r="U78">
         <f t="shared" si="5"/>
@@ -4497,7 +4492,7 @@
       </c>
       <c r="H79">
         <f t="shared" si="4"/>
-        <v>-0.10198520825223824</v>
+        <v>-10.198520825223824</v>
       </c>
       <c r="U79">
         <f t="shared" si="5"/>
@@ -4529,7 +4524,7 @@
       </c>
       <c r="H80">
         <f t="shared" si="4"/>
-        <v>-0.10370370370370352</v>
+        <v>-10.370370370370352</v>
       </c>
       <c r="U80">
         <f t="shared" si="5"/>
@@ -4561,7 +4556,7 @@
       </c>
       <c r="H81">
         <f t="shared" si="4"/>
-        <v>-0.10456496293406156</v>
+        <v>-10.456496293406156</v>
       </c>
       <c r="U81">
         <f t="shared" si="5"/>
@@ -4593,7 +4588,7 @@
       </c>
       <c r="H82">
         <f t="shared" si="4"/>
-        <v>-0.10715682440359797</v>
+        <v>-10.715682440359798</v>
       </c>
       <c r="U82">
         <f t="shared" si="5"/>
@@ -4625,7 +4620,7 @@
       </c>
       <c r="H83">
         <f t="shared" si="4"/>
-        <v>-0.10672400312744337</v>
+        <v>-10.672400312744337</v>
       </c>
       <c r="U83">
         <f t="shared" si="5"/>
@@ -4657,7 +4652,7 @@
       </c>
       <c r="H84">
         <f t="shared" si="4"/>
-        <v>-0.10672400312744337</v>
+        <v>-10.672400312744337</v>
       </c>
       <c r="U84">
         <f t="shared" si="5"/>
